--- a/notebooks/assets/test/keras20_01.xlsx
+++ b/notebooks/assets/test/keras20_01.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.331</v>
+        <v>1.597</v>
       </c>
       <c r="C2" t="n">
-        <v>1.363</v>
+        <v>1.609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.903</v>
+        <v>1.191</v>
       </c>
       <c r="E2" t="n">
-        <v>1.501</v>
+        <v>2.191</v>
       </c>
       <c r="F2" t="n">
-        <v>1.371</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.725</v>
+        <v>3.968</v>
       </c>
       <c r="C3" t="n">
-        <v>2.796</v>
+        <v>4.066</v>
       </c>
       <c r="D3" t="n">
-        <v>1.68</v>
+        <v>2.799</v>
       </c>
       <c r="E3" t="n">
-        <v>4.233</v>
+        <v>9.265000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>3.47</v>
+        <v>5.964</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.247</v>
+        <v>18.214</v>
       </c>
       <c r="C4" t="n">
-        <v>15.306</v>
+        <v>15.308</v>
       </c>
       <c r="D4" t="n">
-        <v>12.947</v>
+        <v>12.948</v>
       </c>
       <c r="E4" t="n">
-        <v>30.637</v>
+        <v>30.588</v>
       </c>
       <c r="F4" t="n">
-        <v>18.068</v>
+        <v>18.064</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.717</v>
+        <v>17.792</v>
       </c>
       <c r="C5" t="n">
-        <v>15.455</v>
+        <v>15.51</v>
       </c>
       <c r="D5" t="n">
-        <v>12.647</v>
+        <v>12.991</v>
       </c>
       <c r="E5" t="n">
-        <v>29.771</v>
+        <v>29.278</v>
       </c>
       <c r="F5" t="n">
-        <v>18.003</v>
+        <v>17.525</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.727</v>
+        <v>0.663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.822</v>
+        <v>0.76</v>
       </c>
       <c r="D6" t="n">
-        <v>0.603</v>
+        <v>0.483</v>
       </c>
       <c r="E6" t="n">
-        <v>0.895</v>
+        <v>0.786</v>
       </c>
       <c r="F6" t="n">
-        <v>0.83</v>
+        <v>0.732</v>
       </c>
     </row>
   </sheetData>
